--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yazda\2810ICT-Group-69\2810ICT-Group-69\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/65100ea6535e422c/桌面/2810ICT-Group-69/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA34D07-D106-46FC-9DA5-0055D119481F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{ABA34D07-D106-46FC-9DA5-0055D119481F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D89BA3D-EF45-4C78-BF3B-9D19FD3ED020}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E9EB1359-B8FD-4DF1-AFFD-9C20BBC88A07}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E9EB1359-B8FD-4DF1-AFFD-9C20BBC88A07}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,75 +50,76 @@
     <t>Duration</t>
   </si>
   <si>
+    <t>Generating WBS</t>
+  </si>
+  <si>
+    <t>Defining and Estimating Activities</t>
+  </si>
+  <si>
+    <t>Create Gantt Chart</t>
+  </si>
+  <si>
+    <t>Allocate work</t>
+  </si>
+  <si>
+    <t>Researching requirements</t>
+  </si>
+  <si>
+    <t>Work out User requirements</t>
+  </si>
+  <si>
+    <t>Work out software requirements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generate Use Cases </t>
+  </si>
+  <si>
+    <t>Visualize how software will work</t>
+  </si>
+  <si>
+    <t>Employ Block Diagram/Flowchart</t>
+  </si>
+  <si>
+    <t>Identifying all system components</t>
+  </si>
+  <si>
+    <t>List all functions</t>
+  </si>
+  <si>
+    <t>List all Data Structures/Data Sources</t>
+  </si>
+  <si>
+    <t>Provide Detailed Design</t>
+  </si>
+  <si>
+    <t>Designing User Interface</t>
+  </si>
+  <si>
+    <t>Outline Structure Design</t>
+  </si>
+  <si>
+    <t>Detail Visual Design</t>
+  </si>
+  <si>
+    <t>Using Version control</t>
+  </si>
+  <si>
+    <t>Employ GIT and GitHub</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Identify Scope of the project</t>
-  </si>
-  <si>
-    <t>Generating WBS</t>
-  </si>
-  <si>
-    <t>Defining and Estimating Activities</t>
-  </si>
-  <si>
-    <t>Create Gantt Chart</t>
-  </si>
-  <si>
-    <t>Allocate work</t>
-  </si>
-  <si>
-    <t>Researching requirements</t>
-  </si>
-  <si>
-    <t>Work out User requirements</t>
-  </si>
-  <si>
-    <t>Work out software requirements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generate Use Cases </t>
-  </si>
-  <si>
-    <t>Visualize how software will work</t>
-  </si>
-  <si>
-    <t>Employ Block Diagram/Flowchart</t>
-  </si>
-  <si>
-    <t>Identifying all system components</t>
-  </si>
-  <si>
-    <t>List all functions</t>
-  </si>
-  <si>
-    <t>List all Data Structures/Data Sources</t>
-  </si>
-  <si>
-    <t>Provide Detailed Design</t>
-  </si>
-  <si>
-    <t>Designing User Interface</t>
-  </si>
-  <si>
-    <t>Outline Structure Design</t>
-  </si>
-  <si>
-    <t>Detail Visual Design</t>
-  </si>
-  <si>
-    <t>Using Version control</t>
-  </si>
-  <si>
-    <t>Employ GIT and GitHub</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -126,8 +127,15 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -151,12 +159,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -166,12 +173,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -607,7 +611,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="69054928"/>
@@ -668,7 +672,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="66688608"/>
@@ -718,7 +722,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-TW"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1612,340 +1616,339 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{656A6D41-DA54-4E4F-86B0-29CFB874266D}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" style="3" customWidth="1"/>
-    <col min="2" max="3" width="10.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.88671875" style="3"/>
-    <col min="7" max="7" width="9.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="30.296875" style="2" customWidth="1"/>
+    <col min="2" max="3" width="10.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.8984375" style="2"/>
+    <col min="7" max="7" width="9.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.8984375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="6">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="5">
         <v>45109</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>45111</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5">
+        <v>45111</v>
+      </c>
+      <c r="C3" s="6">
+        <v>45114</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6">
-        <v>45111</v>
-      </c>
-      <c r="C3" s="7">
+      <c r="B4" s="5">
         <v>45114</v>
       </c>
-      <c r="D3" s="3">
+      <c r="C4" s="6">
+        <v>45117</v>
+      </c>
+      <c r="D4" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6">
-        <v>45114</v>
-      </c>
-      <c r="C4" s="7">
+      <c r="B5" s="5">
         <v>45117</v>
       </c>
-      <c r="D4" s="3">
+      <c r="C5" s="6">
+        <v>45118</v>
+      </c>
+      <c r="D5" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6">
-        <v>45117</v>
-      </c>
-      <c r="C5" s="7">
+      <c r="B6" s="5">
         <v>45118</v>
       </c>
-      <c r="D5" s="3">
+      <c r="C6" s="6">
+        <v>45120</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="5">
+        <v>45120</v>
+      </c>
+      <c r="C7" s="6">
+        <v>45123</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="5">
+        <v>45123</v>
+      </c>
+      <c r="C8" s="6">
+        <v>45126</v>
+      </c>
+      <c r="D8" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="6">
-        <v>45118</v>
-      </c>
-      <c r="C6" s="7">
-        <v>45120</v>
-      </c>
-      <c r="D6" s="3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="5">
+        <v>45126</v>
+      </c>
+      <c r="C9" s="6">
+        <v>45128</v>
+      </c>
+      <c r="D9" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="6">
-        <v>45120</v>
-      </c>
-      <c r="C7" s="7">
-        <v>45123</v>
-      </c>
-      <c r="D7" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="6">
-        <v>45123</v>
-      </c>
-      <c r="C8" s="7">
-        <v>45126</v>
-      </c>
-      <c r="D8" s="3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="5">
+        <v>45128</v>
+      </c>
+      <c r="C10" s="6">
+        <v>45129</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="5">
+        <v>45129</v>
+      </c>
+      <c r="C11" s="6">
+        <v>45134</v>
+      </c>
+      <c r="D11" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="5">
+        <v>45134</v>
+      </c>
+      <c r="C12" s="6">
+        <v>45137</v>
+      </c>
+      <c r="D12" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="6">
-        <v>45126</v>
-      </c>
-      <c r="C9" s="7">
-        <v>45128</v>
-      </c>
-      <c r="D9" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="6">
-        <v>45128</v>
-      </c>
-      <c r="C10" s="7">
-        <v>45129</v>
-      </c>
-      <c r="D10" s="3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="5">
+        <v>45137</v>
+      </c>
+      <c r="C13" s="6">
+        <v>45138</v>
+      </c>
+      <c r="D13" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="6">
-        <v>45129</v>
-      </c>
-      <c r="C11" s="7">
-        <v>45134</v>
-      </c>
-      <c r="D11" s="3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="5">
+        <v>45138</v>
+      </c>
+      <c r="C14" s="6">
+        <v>45141</v>
+      </c>
+      <c r="D14" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="5">
+        <v>45141</v>
+      </c>
+      <c r="C15" s="6">
+        <v>45145</v>
+      </c>
+      <c r="D15" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="5">
+        <v>45145</v>
+      </c>
+      <c r="C16" s="6">
+        <v>45147</v>
+      </c>
+      <c r="D16" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="6">
-        <v>45134</v>
-      </c>
-      <c r="C12" s="7">
-        <v>45137</v>
-      </c>
-      <c r="D12" s="3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="5">
+        <v>45147</v>
+      </c>
+      <c r="C17" s="6">
+        <v>45151</v>
+      </c>
+      <c r="D17" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="5">
+        <v>45151</v>
+      </c>
+      <c r="C18" s="6">
+        <v>45154</v>
+      </c>
+      <c r="D18" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="6">
-        <v>45137</v>
-      </c>
-      <c r="C13" s="7">
-        <v>45138</v>
-      </c>
-      <c r="D13" s="3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="5">
+        <v>45154</v>
+      </c>
+      <c r="C19" s="6">
+        <v>45160</v>
+      </c>
+      <c r="D19" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="5">
+        <v>45160</v>
+      </c>
+      <c r="C20" s="6">
+        <v>45161</v>
+      </c>
+      <c r="D20" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="6">
-        <v>45138</v>
-      </c>
-      <c r="C14" s="7">
-        <v>45141</v>
-      </c>
-      <c r="D14" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="6">
-        <v>45141</v>
-      </c>
-      <c r="C15" s="7">
-        <v>45145</v>
-      </c>
-      <c r="D15" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="6">
-        <v>45145</v>
-      </c>
-      <c r="C16" s="7">
-        <v>45147</v>
-      </c>
-      <c r="D16" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="6">
-        <v>45147</v>
-      </c>
-      <c r="C17" s="7">
-        <v>45151</v>
-      </c>
-      <c r="D17" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="6">
-        <v>45151</v>
-      </c>
-      <c r="C18" s="7">
-        <v>45154</v>
-      </c>
-      <c r="D18" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="6">
-        <v>45154</v>
-      </c>
-      <c r="C19" s="7">
-        <v>45160</v>
-      </c>
-      <c r="D19" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="6">
-        <v>45160</v>
-      </c>
-      <c r="C20" s="7">
+      <c r="B21" s="5">
+        <v>45109</v>
+      </c>
+      <c r="C21" s="6">
         <v>45161</v>
       </c>
-      <c r="D20" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="6">
-        <v>45109</v>
-      </c>
-      <c r="C21" s="7">
-        <v>45161</v>
-      </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="5"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="5"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25"/>
+      <c r="B25"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
